--- a/biology/Botanique/Smilax/Smilax.xlsx
+++ b/biology/Botanique/Smilax/Smilax.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Smilax est un genre végétal de la famille des Smilacaceae. Le genre Smilax compte environ 350 espèces dans le monde. Certaines sont utilisées à des fins médicinales, notamment la Salsepareille (Smilax aspera L.) et la Racine de Chine (Smilax china L.) et/ou parfois consommées (sous forme de jeunes pousses, racines ou fleurs)[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Smilax est un genre végétal de la famille des Smilacaceae. Le genre Smilax compte environ 350 espèces dans le monde. Certaines sont utilisées à des fins médicinales, notamment la Salsepareille (Smilax aspera L.) et la Racine de Chine (Smilax china L.) et/ou parfois consommées (sous forme de jeunes pousses, racines ou fleurs).
 </t>
         </is>
       </c>
@@ -511,13 +523,15 @@
           <t>Usages alimentaires</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Certaines espèces d’Amérique produisent des fruits comestibles[1].
-Au Japon, les jeunes pousses d’espèces locales étaient et sont encore couramment mangées (après cuisson)[1].
-Les racines stockent de l'amidon. Celles de plusieurs espèces ont été consommées par les amérindiens, qui les broyaient, les lavaient à l'eau avant de laisser l’amidon rougeâtre  sédimenter dans un récipient[1]. Mélangé à de l’eau chaude, il pouvait produire une sorte de gelée. La racines tranchée en morceaux pouvaient aussi être fermentées mélangées avec de la mélasse, des écorces de racines de Sassafras et de l’eau pour donner une bière de racine. La racine de S. china était mangée en Chine[1]. 
-Des salsepareilles tropicales américaines produisent, outre de l’amidon et une résine et des saponines, une huile essentielle[1]. 
-Elles servent à renforcer la production d’écume de certaines bière et boissons gazeuses[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Certaines espèces d’Amérique produisent des fruits comestibles.
+Au Japon, les jeunes pousses d’espèces locales étaient et sont encore couramment mangées (après cuisson).
+Les racines stockent de l'amidon. Celles de plusieurs espèces ont été consommées par les amérindiens, qui les broyaient, les lavaient à l'eau avant de laisser l’amidon rougeâtre  sédimenter dans un récipient. Mélangé à de l’eau chaude, il pouvait produire une sorte de gelée. La racines tranchée en morceaux pouvaient aussi être fermentées mélangées avec de la mélasse, des écorces de racines de Sassafras et de l’eau pour donner une bière de racine. La racine de S. china était mangée en Chine. 
+Des salsepareilles tropicales américaines produisent, outre de l’amidon et une résine et des saponines, une huile essentielle. 
+Elles servent à renforcer la production d’écume de certaines bière et boissons gazeuses. 
 </t>
         </is>
       </c>
@@ -546,9 +560,11 @@
           <t>Usages médicinaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plusieurs espèces étaient employées pour traiter le traitement de la Syphilis, notamment sous le nom de liane bagote en Guyane[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plusieurs espèces étaient employées pour traiter le traitement de la Syphilis, notamment sous le nom de liane bagote en Guyane.
 </t>
         </is>
       </c>
@@ -577,7 +593,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Selon ITIS :
@@ -608,7 +626,43 @@
 Smilax smalli Morong
 Smilax tamnoides L.
 Smilax walteri Pursh
-Espèces
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Smilax</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Smilax</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Smilax aberrans Gagnep.
 Smilax aculeatissima Conran
 Smilax amaurophlebia Merr.
